--- a/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
+++ b/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T18:32:16+00:00</t>
+    <t>2025-08-26T18:54:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
+++ b/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T18:54:13+00:00</t>
+    <t>2025-08-26T18:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
+++ b/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T18:57:21+00:00</t>
+    <t>2025-08-26T19:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
+++ b/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T19:03:31+00:00</t>
+    <t>2025-08-26T20:21:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
+++ b/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T20:21:56+00:00</t>
+    <t>2025-08-26T20:31:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
+++ b/pr-preview/pr-6/StructureDefinition-patient-favorite-color.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T20:31:46+00:00</t>
+    <t>2025-09-09T12:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
